--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>日期</t>
   </si>
@@ -51,16 +51,19 @@
   <si>
     <t>逾期利息</t>
   </si>
+  <si>
+    <t>微信还款</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,7 +75,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,130 +202,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,25 +227,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,157 +383,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,30 +436,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -468,6 +447,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,9 +486,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,19 +513,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,133 +553,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,13 +1038,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
     <col min="2" max="2" width="9.375"/>
@@ -1159,17 +1162,26 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>20190617</v>
+      </c>
       <c r="B11" s="1">
-        <f>SUM(B2:B10)</f>
-        <v>18283.33</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>-1000</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1">
+        <v>20190628</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-500</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
@@ -1200,6 +1212,45 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1">
+        <f>SUM(B2:B23)</f>
+        <v>16783.33</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-11630.94</v>
+      </c>
+      <c r="D24">
+        <f>SUM(B24:C24)</f>
+        <v>5152.39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>日期</t>
   </si>
@@ -25,6 +25,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>垫付金额</t>
+  </si>
+  <si>
     <t>微信借款，分四次转账共计1000</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>微信还款</t>
+  </si>
+  <si>
+    <t>借记利息</t>
   </si>
 </sst>
 </file>
@@ -74,8 +80,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,14 +209,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -105,114 +218,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,25 +233,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,157 +389,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,25 +443,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +507,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -518,21 +539,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -541,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,129 +568,132 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1041,7 +1050,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1051,7 +1060,7 @@
     <col min="3" max="3" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,8 +1070,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>20180821</v>
       </c>
@@ -1070,10 +1082,11 @@
         <v>1000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>20181206</v>
       </c>
@@ -1081,10 +1094,11 @@
         <v>600</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>20190102</v>
       </c>
@@ -1092,10 +1106,11 @@
         <v>300</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>20190228</v>
       </c>
@@ -1103,10 +1118,11 @@
         <v>23000</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>20180308</v>
       </c>
@@ -1114,10 +1130,11 @@
         <v>344</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>20190328</v>
       </c>
@@ -1125,10 +1142,11 @@
         <v>-3055</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>20190428</v>
       </c>
@@ -1136,10 +1154,11 @@
         <v>-3012</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>20190529</v>
       </c>
@@ -1147,10 +1166,11 @@
         <v>-1000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>20190608</v>
       </c>
@@ -1158,10 +1178,11 @@
         <v>106.33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>20190617</v>
       </c>
@@ -1169,10 +1190,11 @@
         <v>-1000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>20190628</v>
       </c>
@@ -1180,72 +1202,90 @@
         <v>-500</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>20190708</v>
+      </c>
+      <c r="B13" s="1">
+        <v>193.66</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <f>SUM(B2:B23)</f>
-        <v>16783.33</v>
+        <v>16976.99</v>
       </c>
       <c r="C24" s="1">
-        <v>-11630.94</v>
+        <v>-11824.6</v>
       </c>
       <c r="D24">
         <f>SUM(B24:C24)</f>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -80,9 +80,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,9 +109,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,12 +132,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -125,75 +161,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -209,16 +185,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,31 +233,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,151 +371,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,17 +442,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,7 +479,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,34 +526,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,141 +559,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -751,12 +748,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1045,12 +1037,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1070,7 +1062,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1084,7 +1076,7 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
@@ -1096,7 +1088,7 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
@@ -1108,7 +1100,7 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
@@ -1120,7 +1112,7 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
@@ -1132,7 +1124,7 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
@@ -1144,7 +1136,7 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
@@ -1156,7 +1148,7 @@
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
@@ -1168,7 +1160,7 @@
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
@@ -1180,7 +1172,7 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
@@ -1192,7 +1184,7 @@
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
@@ -1204,7 +1196,7 @@
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
@@ -1216,79 +1208,109 @@
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1"/>
-      <c r="B24" s="1">
-        <f>SUM(B2:B23)</f>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1">
+        <f>SUM(B2:B28)</f>
         <v>16976.99</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C29" s="1">
         <v>-11824.6</v>
       </c>
-      <c r="D24">
-        <f>SUM(B24:C24)</f>
+      <c r="D29">
+        <f>SUM(B29:C29)</f>
         <v>5152.39</v>
       </c>
     </row>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,6 +77,28 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,27 +111,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -132,7 +133,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,40 +141,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,6 +179,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -218,7 +218,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,67 +233,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,19 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,54 +407,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -390,30 +414,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +438,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,11 +481,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,41 +533,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,19 +559,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,112 +580,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -749,6 +749,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1037,12 +1042,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1212,7 +1217,9 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>-1599</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
@@ -1304,14 +1311,14 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <f>SUM(B2:B28)</f>
-        <v>16976.99</v>
+        <v>15377.99</v>
       </c>
       <c r="C29" s="1">
         <v>-11824.6</v>
       </c>
       <c r="D29">
         <f>SUM(B29:C29)</f>
-        <v>5152.39</v>
+        <v>3553.39</v>
       </c>
     </row>
   </sheetData>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -87,9 +87,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,6 +134,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,14 +163,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,9 +192,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,76 +218,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,187 +233,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,17 +442,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,17 +505,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,35 +525,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,19 +559,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,112 +580,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -749,11 +749,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1042,12 +1037,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1217,9 +1212,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="1">
-        <v>-1599</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
@@ -1311,14 +1304,14 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <f>SUM(B2:B28)</f>
-        <v>15377.99</v>
+        <v>16976.99</v>
       </c>
       <c r="C29" s="1">
         <v>-11824.6</v>
       </c>
       <c r="D29">
         <f>SUM(B29:C29)</f>
-        <v>3553.39</v>
+        <v>5152.39</v>
       </c>
     </row>
   </sheetData>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -66,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,6 +81,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -88,7 +102,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,75 +192,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,14 +211,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,175 +233,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,22 +446,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,23 +484,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,8 +508,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,133 +559,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1212,8 +1212,12 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1">
+        <v>192.36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
@@ -1304,14 +1308,14 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <f>SUM(B2:B28)</f>
-        <v>16976.99</v>
+        <v>17169.35</v>
       </c>
       <c r="C29" s="1">
         <v>-11824.6</v>
       </c>
       <c r="D29">
         <f>SUM(B29:C29)</f>
-        <v>5152.39</v>
+        <v>5344.75</v>
       </c>
     </row>
   </sheetData>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>日期</t>
   </si>
@@ -49,7 +49,7 @@
     <t>还第二期行用卡，逾期4000</t>
   </si>
   <si>
-    <t>还第三期信用卡，预期5666</t>
+    <t>还第三期信用卡，逾期5666</t>
   </si>
   <si>
     <t>逾期利息</t>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>借记利息</t>
+  </si>
+  <si>
+    <t>？</t>
   </si>
 </sst>
 </file>
@@ -66,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -82,27 +85,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,21 +99,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,14 +151,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -194,7 +183,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,9 +205,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,19 +236,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,31 +320,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,127 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,6 +493,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -514,17 +528,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -547,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -750,6 +753,84 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1675765</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="4791075"/>
+          <a:ext cx="1542415" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>信用卡未还金额</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1042,7 +1123,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1211,19 +1292,25 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>20190802</v>
+      </c>
       <c r="B14" s="1">
-        <v>192.36</v>
+        <v>-500</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
@@ -1308,19 +1395,20 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <f>SUM(B2:B28)</f>
-        <v>17169.35</v>
+        <v>16476.99</v>
       </c>
       <c r="C29" s="1">
-        <v>-11824.6</v>
-      </c>
-      <c r="D29">
-        <f>SUM(B29:C29)</f>
-        <v>5344.75</v>
+        <v>10467.6</v>
+      </c>
+      <c r="D29" s="1">
+        <f>B29-C29</f>
+        <v>6009.39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>日期</t>
   </si>
@@ -60,19 +60,16 @@
   <si>
     <t>借记利息</t>
   </si>
-  <si>
-    <t>？</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,6 +82,73 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,70 +162,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,39 +194,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,181 +233,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,8 +445,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,37 +490,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,17 +529,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +559,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -752,6 +749,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1118,12 +1120,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1304,9 +1306,11 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
+      <c r="A15" s="1">
+        <v>20190808</v>
+      </c>
+      <c r="B15" s="1">
+        <v>178.52</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -1395,10 +1399,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <f>SUM(B2:B28)</f>
-        <v>16476.99</v>
+        <v>16655.51</v>
       </c>
       <c r="C29" s="1">
-        <v>10467.6</v>
+        <v>10646.12</v>
       </c>
       <c r="D29" s="1">
         <f>B29-C29</f>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,6 +80,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -88,14 +104,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,6 +134,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -117,38 +163,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,61 +210,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,187 +233,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,11 +442,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,6 +481,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -486,6 +501,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,41 +539,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -547,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,133 +559,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1318,9 +1318,15 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="1">
+        <v>20190828</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-800</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4">
@@ -1399,14 +1405,14 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <f>SUM(B2:B28)</f>
-        <v>16655.51</v>
+        <v>15855.51</v>
       </c>
       <c r="C29" s="1">
         <v>10646.12</v>
       </c>
       <c r="D29" s="1">
         <f>B29-C29</f>
-        <v>6009.39</v>
+        <v>5209.39</v>
       </c>
     </row>
   </sheetData>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -66,9 +66,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -80,46 +80,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,13 +103,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -148,22 +132,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,6 +162,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -193,32 +193,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,31 +233,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,25 +371,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,66 +407,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,54 +414,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,21 +438,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,15 +466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -507,6 +483,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -516,11 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,133 +559,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1408,11 +1408,11 @@
         <v>15855.51</v>
       </c>
       <c r="C29" s="1">
-        <v>10646.12</v>
+        <v>9846.12</v>
       </c>
       <c r="D29" s="1">
         <f>B29-C29</f>
-        <v>5209.39</v>
+        <v>6009.39</v>
       </c>
     </row>
   </sheetData>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -66,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,14 +81,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,22 +193,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,102 +218,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -233,55 +233,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,127 +401,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,8 +445,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,26 +481,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,17 +496,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -539,6 +530,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -547,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,133 +559,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1330,15 +1330,27 @@
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="1">
+        <v>20190908</v>
+      </c>
+      <c r="B17" s="1">
+        <v>318.08</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="1">
+        <v>20190909</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-500</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4">
@@ -1405,14 +1417,14 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <f>SUM(B2:B28)</f>
-        <v>15855.51</v>
+        <v>15673.59</v>
       </c>
       <c r="C29" s="1">
-        <v>9846.12</v>
+        <v>9528.04</v>
       </c>
       <c r="D29" s="1">
         <f>B29-C29</f>
-        <v>6009.39</v>
+        <v>6145.55</v>
       </c>
     </row>
   </sheetData>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -67,8 +67,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -80,6 +80,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -87,30 +161,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,67 +200,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -193,34 +208,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -233,43 +233,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,19 +389,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,115 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +438,54 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,21 +514,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -488,30 +521,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,15 +539,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -547,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,16 +559,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,115 +577,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1354,9 +1354,15 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="1">
+        <v>20190928</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4">
@@ -1417,14 +1423,14 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <f>SUM(B2:B28)</f>
-        <v>15673.59</v>
+        <v>14673.59</v>
       </c>
       <c r="C29" s="1">
         <v>9528.04</v>
       </c>
       <c r="D29" s="1">
         <f>B29-C29</f>
-        <v>6145.55</v>
+        <v>5145.55</v>
       </c>
     </row>
   </sheetData>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -66,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,31 +80,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,85 +194,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,17 +210,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,187 +233,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,35 +442,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,9 +474,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,28 +516,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,133 +559,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1366,14 +1366,22 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="1">
+        <v>20191008</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4.65</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="1">
+        <v>20191008</v>
+      </c>
+      <c r="B21" s="1">
+        <v>137.42</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
@@ -1423,14 +1431,14 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <f>SUM(B2:B28)</f>
-        <v>14673.59</v>
+        <v>14815.66</v>
       </c>
       <c r="C29" s="1">
         <v>9528.04</v>
       </c>
       <c r="D29" s="1">
         <f>B29-C29</f>
-        <v>5145.55</v>
+        <v>5287.62</v>
       </c>
     </row>
   </sheetData>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>日期</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>借记利息</t>
+  </si>
+  <si>
+    <t>违约金</t>
   </si>
 </sst>
 </file>
@@ -66,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,53 +97,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,17 +129,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,9 +174,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +219,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -239,13 +242,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,73 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,85 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,17 +445,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,8 +498,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,30 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -547,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,130 +565,130 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -749,11 +752,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1120,12 +1118,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1372,7 +1370,9 @@
       <c r="B20" s="1">
         <v>4.65</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4">
@@ -1382,13 +1382,21 @@
       <c r="B21" s="1">
         <v>137.42</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="1">
+        <v>20191012</v>
+      </c>
+      <c r="B22" s="1">
+        <v>-1090</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4">
@@ -1431,14 +1439,14 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <f>SUM(B2:B28)</f>
-        <v>14815.66</v>
+        <v>13725.66</v>
       </c>
       <c r="C29" s="1">
-        <v>9528.04</v>
+        <v>7582.11</v>
       </c>
       <c r="D29" s="1">
         <f>B29-C29</f>
-        <v>5287.62</v>
+        <v>6143.55</v>
       </c>
     </row>
   </sheetData>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,6 +84,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -91,25 +113,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,15 +189,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,60 +206,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,14 +226,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -236,19 +236,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,61 +380,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,91 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,26 +445,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,8 +498,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,23 +522,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,8 +1122,8 @@
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1400,9 +1400,15 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="1">
+        <v>20191017</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-500</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4">
@@ -1439,14 +1445,14 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <f>SUM(B2:B28)</f>
-        <v>13725.66</v>
+        <v>13225.66</v>
       </c>
       <c r="C29" s="1">
         <v>7582.11</v>
       </c>
       <c r="D29" s="1">
         <f>B29-C29</f>
-        <v>6143.55</v>
+        <v>5643.55</v>
       </c>
     </row>
   </sheetData>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,6 +85,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,77 +122,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,22 +161,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,6 +203,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -236,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +445,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -465,6 +495,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,47 +537,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,145 +550,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,8 +1122,8 @@
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1412,9 +1412,15 @@
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="1">
+        <v>20191029</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-500</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4">
@@ -1445,14 +1451,14 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <f>SUM(B2:B28)</f>
-        <v>13225.66</v>
+        <v>12725.66</v>
       </c>
       <c r="C29" s="1">
-        <v>7582.11</v>
+        <v>7172.67</v>
       </c>
       <c r="D29" s="1">
         <f>B29-C29</f>
-        <v>5643.55</v>
+        <v>5552.99</v>
       </c>
     </row>
   </sheetData>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,12 +84,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -98,16 +159,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,14 +206,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,91 +221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,19 +236,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,162 +417,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +445,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -455,21 +490,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -502,43 +522,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -761,13 +761,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1675765</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -777,7 +777,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1638300" y="4791075"/>
+          <a:off x="1638300" y="6505575"/>
           <a:ext cx="1542415" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1120,10 +1120,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1449,15 +1449,75 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1"/>
-      <c r="B29" s="1">
-        <f>SUM(B2:B28)</f>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1">
+        <f>SUM(B2:B38)</f>
         <v>12725.66</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C39" s="1">
         <v>7172.67</v>
       </c>
-      <c r="D29" s="1">
-        <f>B29-C29</f>
+      <c r="D39" s="1">
+        <f>B39-C39</f>
         <v>5552.99</v>
       </c>
     </row>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,6 +85,28 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,7 +145,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,45 +153,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,38 +211,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,61 +236,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,13 +362,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,13 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,79 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,6 +441,17 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,27 +480,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -528,16 +528,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1424,9 +1424,15 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="A25" s="1">
+        <v>20191108</v>
+      </c>
+      <c r="B25" s="1">
+        <v>115.19</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4">
@@ -1511,10 +1517,11 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <f>SUM(B2:B38)</f>
-        <v>12725.66</v>
+        <v>12840.85</v>
       </c>
       <c r="C39" s="1">
-        <v>7172.67</v>
+        <f>7172.67+115.19</f>
+        <v>7287.86</v>
       </c>
       <c r="D39" s="1">
         <f>B39-C39</f>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,6 +84,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -91,40 +98,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,30 +173,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,8 +196,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,7 +206,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,22 +226,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -236,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,17 +441,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,17 +469,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,23 +519,25 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -550,145 +550,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1436,9 +1436,15 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="1">
+        <v>20191121</v>
+      </c>
+      <c r="B26" s="1">
+        <v>-500</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4">
@@ -1517,7 +1523,7 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <f>SUM(B2:B38)</f>
-        <v>12840.85</v>
+        <v>12340.85</v>
       </c>
       <c r="C39" s="1">
         <f>7172.67+115.19</f>
@@ -1525,7 +1531,7 @@
       </c>
       <c r="D39" s="1">
         <f>B39-C39</f>
-        <v>5552.99</v>
+        <v>5052.99</v>
       </c>
     </row>
   </sheetData>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -84,6 +84,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -91,7 +98,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,56 +111,64 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,6 +196,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -188,40 +220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,37 +236,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,18 +404,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,121 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +445,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -456,6 +480,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,56 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -752,6 +752,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1118,12 +1123,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1448,15 +1453,27 @@
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="A27" s="1">
+        <v>20191206</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28" s="1">
+        <v>20191212</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4">
@@ -1523,7 +1540,7 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <f>SUM(B2:B38)</f>
-        <v>12340.85</v>
+        <v>9340.85</v>
       </c>
       <c r="C39" s="1">
         <f>7172.67+115.19</f>
@@ -1531,7 +1548,7 @@
       </c>
       <c r="D39" s="1">
         <f>B39-C39</f>
-        <v>5052.99</v>
+        <v>2052.99</v>
       </c>
     </row>
   </sheetData>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,14 +98,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,46 +142,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,40 +174,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +455,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -469,21 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -491,6 +491,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,8 +522,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,15 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,145 +550,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -766,13 +766,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1675765</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -782,7 +782,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1638300" y="6505575"/>
+          <a:off x="1638300" y="6677025"/>
           <a:ext cx="1542415" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1125,10 +1125,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1466,26 +1466,38 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
+        <v>20191208</v>
+      </c>
+      <c r="B28" s="1">
+        <v>104.39</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
         <v>20191212</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
         <v>-1000</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="1">
+        <v>20200106</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4">
@@ -1538,17 +1550,23 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1"/>
-      <c r="B39" s="1">
-        <f>SUM(B2:B38)</f>
-        <v>9340.85</v>
-      </c>
-      <c r="C39" s="1">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1">
+        <f>SUM(B2:B39)</f>
+        <v>8445.24</v>
+      </c>
+      <c r="C40" s="1">
         <f>7172.67+115.19</f>
         <v>7287.86</v>
       </c>
-      <c r="D39" s="1">
-        <f>B39-C39</f>
-        <v>2052.99</v>
+      <c r="D40" s="1">
+        <f>B40-C40</f>
+        <v>1157.38</v>
       </c>
     </row>
   </sheetData>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="23940" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,22 +83,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,15 +107,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,14 +183,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -174,6 +198,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -182,46 +214,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +445,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -465,6 +480,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,21 +534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -527,21 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -752,11 +752,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1123,12 +1118,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1501,9 +1496,15 @@
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="1">
+        <v>20200108</v>
+      </c>
+      <c r="B31" s="1">
+        <v>96.12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4">
@@ -1558,7 +1559,7 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <f>SUM(B2:B39)</f>
-        <v>8445.24</v>
+        <v>8541.36</v>
       </c>
       <c r="C40" s="1">
         <f>7172.67+115.19</f>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="D40" s="1">
         <f>B40-C40</f>
-        <v>1157.38</v>
+        <v>1253.5</v>
       </c>
     </row>
   </sheetData>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23940" windowHeight="12060"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,9 +83,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,13 +114,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -113,56 +137,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,38 +199,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,13 +222,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,19 +236,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,163 +398,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,25 +445,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -484,17 +480,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,22 +504,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -752,6 +752,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1118,12 +1123,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1508,9 +1513,15 @@
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="1">
+        <v>20200208</v>
+      </c>
+      <c r="B32" s="1">
+        <v>176.12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4">
@@ -1559,7 +1570,7 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <f>SUM(B2:B39)</f>
-        <v>8541.36</v>
+        <v>8717.48</v>
       </c>
       <c r="C40" s="1">
         <f>7172.67+115.19</f>
@@ -1567,7 +1578,7 @@
       </c>
       <c r="D40" s="1">
         <f>B40-C40</f>
-        <v>1253.5</v>
+        <v>1429.62</v>
       </c>
     </row>
   </sheetData>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,24 +83,99 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,114 +189,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +447,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -454,13 +465,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,26 +513,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,30 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -752,11 +752,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1123,12 +1118,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1525,9 +1520,15 @@
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="A33" s="1">
+        <v>20200223</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4">
@@ -1570,7 +1571,7 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <f>SUM(B2:B39)</f>
-        <v>8717.48</v>
+        <v>7717.48</v>
       </c>
       <c r="C40" s="1">
         <f>7172.67+115.19</f>
@@ -1578,7 +1579,7 @@
       </c>
       <c r="D40" s="1">
         <f>B40-C40</f>
-        <v>1429.62</v>
+        <v>429.620000000004</v>
       </c>
     </row>
   </sheetData>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -90,8 +90,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,8 +105,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,21 +166,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -165,6 +196,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -173,44 +211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -236,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,13 +445,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,6 +465,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,24 +493,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -509,6 +504,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,21 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,10 +562,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,7 +574,7 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,112 +583,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -752,6 +752,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -761,13 +766,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1675765</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -777,7 +782,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1638300" y="6677025"/>
+          <a:off x="1638300" y="7705725"/>
           <a:ext cx="1542415" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1118,12 +1123,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1552,7 +1557,6 @@
     <row r="37" spans="1:4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4">
@@ -1569,16 +1573,52 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1"/>
-      <c r="B40" s="1">
-        <f>SUM(B2:B39)</f>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1">
+        <f>SUM(B2:B45)</f>
         <v>7717.48</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C46" s="1">
         <f>7172.67+115.19</f>
         <v>7287.86</v>
       </c>
-      <c r="D40" s="1">
-        <f>B40-C40</f>
+      <c r="D46" s="1">
+        <f>B46-C46</f>
         <v>429.620000000004</v>
       </c>
     </row>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,8 +83,137 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,135 +226,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -236,19 +236,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,19 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,121 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,17 +445,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,11 +474,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,32 +519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -528,16 +528,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,8 +1127,8 @@
   <sheetPr/>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1537,9 +1537,15 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="A34" s="1">
+        <v>20200308</v>
+      </c>
+      <c r="B34" s="1">
+        <v>98.63</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4">
@@ -1611,7 +1617,7 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <f>SUM(B2:B45)</f>
-        <v>7717.48</v>
+        <v>7816.11</v>
       </c>
       <c r="C46" s="1">
         <f>7172.67+115.19</f>
@@ -1619,7 +1625,7 @@
       </c>
       <c r="D46" s="1">
         <f>B46-C46</f>
-        <v>429.620000000004</v>
+        <v>528.250000000004</v>
       </c>
     </row>
   </sheetData>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,6 +80,142 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,142 +226,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -236,19 +236,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,43 +374,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,102 +410,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -411,12 +417,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,17 +447,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -474,6 +463,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -485,21 +489,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +531,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -752,11 +752,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1123,12 +1118,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1505,7 +1500,7 @@
         <v>20200108</v>
       </c>
       <c r="B31" s="1">
-        <v>96.12</v>
+        <v>107.89</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -1617,7 +1612,7 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <f>SUM(B2:B45)</f>
-        <v>7816.11</v>
+        <v>7827.88</v>
       </c>
       <c r="C46" s="1">
         <f>7172.67+115.19</f>
@@ -1625,7 +1620,7 @@
       </c>
       <c r="D46" s="1">
         <f>B46-C46</f>
-        <v>528.250000000004</v>
+        <v>540.020000000002</v>
       </c>
     </row>
   </sheetData>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>日期</t>
   </si>
@@ -63,6 +63,9 @@
   <si>
     <t>违约金</t>
   </si>
+  <si>
+    <t>剩余未还</t>
+  </si>
 </sst>
 </file>
 
@@ -70,9 +73,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,7 +87,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,8 +100,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,6 +123,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -128,7 +147,68 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,14 +222,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -157,75 +229,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -236,6 +239,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -248,175 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,15 +457,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -474,6 +468,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,17 +545,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +565,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,8 +1125,8 @@
   <sheetPr/>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1609,7 +1612,9 @@
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B46" s="1">
         <f>SUM(B2:B45)</f>
         <v>7827.88</v>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$34</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>日期</t>
   </si>
@@ -23,9 +26,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>垫付金额</t>
   </si>
   <si>
     <t>微信借款，分四次转账共计1000</t>
@@ -73,9 +73,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,15 +94,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,29 +117,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,17 +132,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,8 +154,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -201,30 +224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,19 +239,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,163 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,8 +451,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,41 +468,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,9 +489,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +536,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,138 +565,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -756,84 +759,6 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1675765</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1638300" y="7705725"/>
-          <a:ext cx="1542415" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>信用卡未还金额</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1123,20 +1048,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
     <col min="2" max="2" width="9.375"/>
     <col min="3" max="3" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,11 +1071,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>20180821</v>
       </c>
@@ -1158,11 +1080,10 @@
         <v>1000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>20181206</v>
       </c>
@@ -1170,11 +1091,10 @@
         <v>600</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>20190102</v>
       </c>
@@ -1182,11 +1102,10 @@
         <v>300</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>20190228</v>
       </c>
@@ -1194,11 +1113,10 @@
         <v>23000</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>20180308</v>
       </c>
@@ -1206,11 +1124,10 @@
         <v>344</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>20190328</v>
       </c>
@@ -1218,11 +1135,10 @@
         <v>-3055</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>20190428</v>
       </c>
@@ -1230,11 +1146,10 @@
         <v>-3012</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>20190529</v>
       </c>
@@ -1242,11 +1157,10 @@
         <v>-1000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>20190608</v>
       </c>
@@ -1254,11 +1168,10 @@
         <v>106.33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>20190617</v>
       </c>
@@ -1266,11 +1179,10 @@
         <v>-1000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>20190628</v>
       </c>
@@ -1278,11 +1190,10 @@
         <v>-500</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>20190708</v>
       </c>
@@ -1290,11 +1201,10 @@
         <v>193.66</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>20190802</v>
       </c>
@@ -1302,11 +1212,10 @@
         <v>-500</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>20190808</v>
       </c>
@@ -1314,11 +1223,10 @@
         <v>178.52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>20190828</v>
       </c>
@@ -1326,11 +1234,10 @@
         <v>-800</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>20190908</v>
       </c>
@@ -1338,11 +1245,10 @@
         <v>318.08</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>20190909</v>
       </c>
@@ -1350,11 +1256,10 @@
         <v>-500</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>20190928</v>
       </c>
@@ -1362,11 +1267,10 @@
         <v>-1000</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>20191008</v>
       </c>
@@ -1374,11 +1278,10 @@
         <v>4.65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>20191008</v>
       </c>
@@ -1386,11 +1289,10 @@
         <v>137.42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20191012</v>
       </c>
@@ -1398,11 +1300,10 @@
         <v>-1090</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>20191017</v>
       </c>
@@ -1410,11 +1311,10 @@
         <v>-500</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>20191029</v>
       </c>
@@ -1422,11 +1322,10 @@
         <v>-500</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>20191108</v>
       </c>
@@ -1434,11 +1333,10 @@
         <v>115.19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>20191121</v>
       </c>
@@ -1446,11 +1344,10 @@
         <v>-500</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>20191206</v>
       </c>
@@ -1458,11 +1355,10 @@
         <v>-2000</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>20191208</v>
       </c>
@@ -1470,11 +1366,10 @@
         <v>104.39</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>20191212</v>
       </c>
@@ -1482,11 +1377,10 @@
         <v>-1000</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>20200106</v>
       </c>
@@ -1494,11 +1388,10 @@
         <v>-1000</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>20200108</v>
       </c>
@@ -1506,11 +1399,10 @@
         <v>107.89</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>20200208</v>
       </c>
@@ -1518,11 +1410,10 @@
         <v>176.12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>20200223</v>
       </c>
@@ -1530,11 +1421,10 @@
         <v>-1000</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>20200308</v>
       </c>
@@ -1542,96 +1432,77 @@
         <v>98.63</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4">
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4">
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4">
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4">
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4">
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4">
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4">
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4">
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4">
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4">
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" s="1">
         <f>SUM(B2:B45)</f>
         <v>7827.88</v>
       </c>
-      <c r="C46" s="1">
-        <f>7172.67+115.19</f>
-        <v>7287.86</v>
-      </c>
-      <c r="D46" s="1">
-        <f>B46-C46</f>
-        <v>540.020000000002</v>
-      </c>
+      <c r="C46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -86,17 +86,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,6 +110,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -124,38 +201,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,68 +225,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,187 +239,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +458,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -468,6 +483,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,17 +507,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,26 +535,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,141 +565,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -758,6 +755,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1046,12 +1048,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1436,9 +1438,15 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="A35" s="1">
+        <v>20200406</v>
+      </c>
+      <c r="B35" s="1">
+        <v>-500</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1"/>
@@ -1448,7 +1456,7 @@
     <row r="37" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1"/>
@@ -1496,7 +1504,7 @@
       </c>
       <c r="B46" s="1">
         <f>SUM(B2:B45)</f>
-        <v>7827.88</v>
+        <v>7327.88</v>
       </c>
       <c r="C46" s="1"/>
     </row>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28080" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,6 +83,20 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -94,6 +108,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -102,6 +138,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -110,121 +184,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,79 +239,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,103 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,45 +458,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -520,6 +481,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -535,13 +531,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,133 +565,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,8 +1052,8 @@
   <sheetPr/>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1449,9 +1449,15 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="A36" s="1">
+        <v>20200408</v>
+      </c>
+      <c r="B36" s="1">
+        <v>352.63</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1"/>
@@ -1504,7 +1510,7 @@
       </c>
       <c r="B46" s="1">
         <f>SUM(B2:B45)</f>
-        <v>7327.88</v>
+        <v>7680.51</v>
       </c>
       <c r="C46" s="1"/>
     </row>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12630"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -86,15 +86,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,20 +109,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -146,8 +133,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -161,70 +223,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,13 +239,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,163 +395,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,22 +481,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,17 +526,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,133 +565,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -755,11 +755,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1048,12 +1043,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1460,9 +1455,15 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="A37" s="1">
+        <v>20200427</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-500</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1"/>
@@ -1510,7 +1511,7 @@
       </c>
       <c r="B46" s="1">
         <f>SUM(B2:B45)</f>
-        <v>7680.51</v>
+        <v>7180.51</v>
       </c>
       <c r="C46" s="1"/>
     </row>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,6 +83,27 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,6 +122,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -109,6 +145,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -134,26 +185,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -162,69 +222,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,109 +239,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,73 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,6 +457,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -475,38 +486,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,20 +509,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,133 +565,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -755,6 +755,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1043,12 +1048,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1466,9 +1471,15 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="A38" s="1">
+        <v>20200508</v>
+      </c>
+      <c r="B38" s="1">
+        <v>266.19</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1"/>
@@ -1511,7 +1522,7 @@
       </c>
       <c r="B46" s="1">
         <f>SUM(B2:B45)</f>
-        <v>7180.51</v>
+        <v>7446.7</v>
       </c>
       <c r="C46" s="1"/>
     </row>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,6 +95,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,14 +131,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -132,6 +156,44 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,29 +207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -178,53 +217,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,43 +239,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,54 +407,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -347,79 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,6 +457,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -468,26 +483,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,23 +510,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +530,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,133 +565,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1475,7 +1475,7 @@
         <v>20200508</v>
       </c>
       <c r="B38" s="1">
-        <v>266.19</v>
+        <v>265.49</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>11</v>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="B46" s="1">
         <f>SUM(B2:B45)</f>
-        <v>7446.7</v>
+        <v>7446</v>
       </c>
       <c r="C46" s="1"/>
     </row>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,24 +100,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,16 +123,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,45 +146,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +160,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -217,14 +185,46 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +239,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -251,175 +395,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,8 +451,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,69 +545,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,145 +553,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1482,9 +1482,15 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="A39" s="1">
+        <v>20200515</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-500</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1"/>
@@ -1522,7 +1528,7 @@
       </c>
       <c r="B46" s="1">
         <f>SUM(B2:B45)</f>
-        <v>7446</v>
+        <v>6946</v>
       </c>
       <c r="C46" s="1"/>
     </row>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -86,6 +86,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -101,9 +170,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,113 +229,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -239,187 +239,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,11 +448,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,72 +541,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,133 +565,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,8 +1052,8 @@
   <sheetPr/>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1493,9 +1493,15 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="A40" s="1">
+        <v>20200526</v>
+      </c>
+      <c r="B40" s="1">
+        <v>-500</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1"/>
@@ -1528,7 +1534,7 @@
       </c>
       <c r="B46" s="1">
         <f>SUM(B2:B45)</f>
-        <v>6946</v>
+        <v>6446</v>
       </c>
       <c r="C46" s="1"/>
     </row>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$46</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>日期</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>借记利息</t>
+  </si>
+  <si>
+    <t>中行</t>
+  </si>
+  <si>
+    <t>美团</t>
+  </si>
+  <si>
+    <t>jd</t>
+  </si>
+  <si>
+    <t>baidu</t>
   </si>
   <si>
     <t>违约金</t>
@@ -73,9 +85,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,6 +95,22 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,10 +123,91 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,106 +220,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,14 +241,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -239,49 +251,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,43 +389,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,73 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,6 +456,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,17 +517,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,17 +534,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,15 +557,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -755,11 +767,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1048,19 +1055,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
     <col min="2" max="2" width="9.375"/>
     <col min="3" max="3" width="38.25" customWidth="1"/>
+    <col min="8" max="10" width="9.375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1250,7 +1258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>20190909</v>
       </c>
@@ -1260,8 +1268,20 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>20190928</v>
       </c>
@@ -1271,8 +1291,20 @@
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="H19">
+        <v>10000</v>
+      </c>
+      <c r="I19">
+        <v>10000</v>
+      </c>
+      <c r="J19">
+        <v>10000</v>
+      </c>
+      <c r="K19">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>20191008</v>
       </c>
@@ -1280,10 +1312,22 @@
         <v>4.65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>897.26</v>
+      </c>
+      <c r="I20">
+        <v>939.75</v>
+      </c>
+      <c r="J20">
+        <v>983.67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>20191008</v>
       </c>
@@ -1293,8 +1337,23 @@
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="E21">
+        <v>320</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>892.98</v>
+      </c>
+      <c r="I21">
+        <v>899.75</v>
+      </c>
+      <c r="J21">
+        <v>975.62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20191012</v>
       </c>
@@ -1304,8 +1363,20 @@
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>892.98</v>
+      </c>
+      <c r="I22">
+        <v>899.75</v>
+      </c>
+      <c r="J22">
+        <v>962.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>20191017</v>
       </c>
@@ -1315,8 +1386,20 @@
       <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>892.98</v>
+      </c>
+      <c r="I23">
+        <v>899.75</v>
+      </c>
+      <c r="J23">
+        <v>945.83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>20191029</v>
       </c>
@@ -1326,8 +1409,20 @@
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>892.98</v>
+      </c>
+      <c r="I24">
+        <v>899.75</v>
+      </c>
+      <c r="J24">
+        <v>936.87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>20191108</v>
       </c>
@@ -1337,8 +1432,23 @@
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="E25">
+        <v>221.29</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>892.98</v>
+      </c>
+      <c r="I25">
+        <v>899.75</v>
+      </c>
+      <c r="J25">
+        <v>920.93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>20191121</v>
       </c>
@@ -1348,8 +1458,20 @@
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>892.98</v>
+      </c>
+      <c r="I26">
+        <v>899.75</v>
+      </c>
+      <c r="J26">
+        <v>910.83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>20191206</v>
       </c>
@@ -1359,8 +1481,20 @@
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>892.98</v>
+      </c>
+      <c r="I27">
+        <v>899.75</v>
+      </c>
+      <c r="J27">
+        <v>898.12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>20191208</v>
       </c>
@@ -1370,8 +1504,23 @@
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="E28">
+        <v>202.35</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+      <c r="H28">
+        <v>892.98</v>
+      </c>
+      <c r="I28">
+        <v>899.75</v>
+      </c>
+      <c r="J28">
+        <v>880.09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>20191212</v>
       </c>
@@ -1381,8 +1530,20 @@
       <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>892.98</v>
+      </c>
+      <c r="I29">
+        <v>899.75</v>
+      </c>
+      <c r="J29">
+        <v>872.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>20200106</v>
       </c>
@@ -1392,8 +1553,20 @@
       <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>892.98</v>
+      </c>
+      <c r="I30">
+        <v>899.75</v>
+      </c>
+      <c r="J30">
+        <v>858.53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>20200108</v>
       </c>
@@ -1403,8 +1576,23 @@
       <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="E31">
+        <v>183.18</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+      <c r="H31">
+        <v>892.98</v>
+      </c>
+      <c r="I31">
+        <v>899.8</v>
+      </c>
+      <c r="J31">
+        <v>846.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>20200208</v>
       </c>
@@ -1413,6 +1601,21 @@
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E32">
+        <v>163.18</v>
+      </c>
+      <c r="H32">
+        <f>SUM(H20:H31)</f>
+        <v>10720.04</v>
+      </c>
+      <c r="I32">
+        <f>SUM(I20:I31)</f>
+        <v>10837.05</v>
+      </c>
+      <c r="J32">
+        <f>SUM(J20:J31)</f>
+        <v>10991.52</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1426,7 +1629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>20200308</v>
       </c>
@@ -1435,6 +1638,9 @@
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E34">
+        <v>144.16</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1448,7 +1654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>20200408</v>
       </c>
@@ -1457,6 +1663,9 @@
       </c>
       <c r="C36" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E36">
+        <v>124.29</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1470,7 +1679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>20200508</v>
       </c>
@@ -1479,6 +1688,9 @@
       </c>
       <c r="C38" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E38">
+        <v>104.19</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1505,38 +1717,54 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1">
+        <v>-500</v>
+      </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="B42" s="1">
+        <v>-500</v>
+      </c>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="E43">
+        <v>83.85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="E44">
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="E45">
+        <v>42.42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B46" s="1">
         <f>SUM(B2:B45)</f>
-        <v>6446</v>
+        <v>5446</v>
       </c>
       <c r="C46" s="1"/>
+      <c r="E46">
+        <v>21.43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -84,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,6 +95,57 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,6 +157,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -122,50 +227,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -180,67 +241,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -251,42 +251,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -299,7 +395,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,121 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,8 +463,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,45 +508,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -537,8 +522,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +542,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,8 +1059,8 @@
   <sheetPr/>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1606,15 +1606,15 @@
         <v>163.18</v>
       </c>
       <c r="H32">
-        <f>SUM(H20:H31)</f>
+        <f t="shared" ref="H32:J32" si="0">SUM(H20:H31)</f>
         <v>10720.04</v>
       </c>
       <c r="I32">
-        <f>SUM(I20:I31)</f>
+        <f t="shared" si="0"/>
         <v>10837.05</v>
       </c>
       <c r="J32">
-        <f>SUM(J20:J31)</f>
+        <f t="shared" si="0"/>
         <v>10991.52</v>
       </c>
     </row>
@@ -1723,7 +1723,9 @@
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>20200627</v>
+      </c>
       <c r="B42" s="1">
         <v>-500</v>
       </c>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -84,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,21 +99,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,14 +137,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,16 +166,38 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,36 +212,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -219,6 +227,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -226,21 +241,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -251,13 +251,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,91 +383,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,73 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,17 +463,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,28 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,17 +549,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,8 +1059,8 @@
   <sheetPr/>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1291,6 +1291,9 @@
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
       <c r="H19">
         <v>10000</v>
       </c>
@@ -1314,6 +1317,9 @@
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E20">
+        <v>20000</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
@@ -1716,11 +1722,15 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>20200617</v>
+      </c>
       <c r="B41" s="1">
         <v>-500</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
@@ -1729,7 +1739,9 @@
       <c r="B42" s="1">
         <v>-500</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1"/>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12645"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$50</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -98,6 +98,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -106,7 +161,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,14 +206,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -137,77 +214,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,29 +241,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -251,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +464,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,6 +505,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -495,41 +534,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,15 +557,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,10 +1057,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1743,40 +1743,66 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="E43">
-        <v>83.85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>20200725</v>
+      </c>
+      <c r="B43" s="1">
+        <v>-500</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="E44">
-        <v>63.26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="E45">
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="E47">
+        <v>83.85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="E48">
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="E49">
         <v>42.42</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="1">
-        <f>SUM(B2:B45)</f>
-        <v>5446</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="E46">
+      <c r="B50" s="1">
+        <f>SUM(B2:B49)</f>
+        <v>4946</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="E50">
         <v>21.43</v>
       </c>
     </row>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,6 +95,81 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,6 +181,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -114,21 +227,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -137,110 +235,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -251,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,22 +464,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,15 +495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -530,15 +506,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +524,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -767,6 +767,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1055,12 +1060,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1755,8 +1760,12 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="A44" s="1">
+        <v>20200829</v>
+      </c>
+      <c r="B44" s="1">
+        <v>-500</v>
+      </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3">
@@ -1799,7 +1808,7 @@
       </c>
       <c r="B50" s="1">
         <f>SUM(B2:B49)</f>
-        <v>4946</v>
+        <v>4446</v>
       </c>
       <c r="C50" s="1"/>
       <c r="E50">

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,6 +99,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -106,7 +113,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,20 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +211,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -156,91 +241,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -251,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,15 +460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -484,28 +475,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,7 +518,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,17 +543,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,8 +1064,8 @@
   <sheetPr/>
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1766,7 +1766,9 @@
       <c r="B44" s="1">
         <v>-500</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1"/>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$60</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
   <si>
     <t>日期</t>
   </si>
@@ -84,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,22 +98,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,29 +145,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -158,6 +153,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -167,22 +206,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,7 +221,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,33 +236,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -251,6 +251,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -263,37 +299,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,133 +407,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,21 +460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -494,7 +479,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,8 +532,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,23 +552,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,10 +1062,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1771,9 +1771,15 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="A45" s="1">
+        <v>20201003</v>
+      </c>
+      <c r="B45" s="1">
+        <v>-500</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1"/>
@@ -1796,24 +1802,74 @@
         <v>63.26</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="E49">
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="E59">
         <v>42.42</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1" t="s">
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="1">
-        <f>SUM(B2:B49)</f>
-        <v>4446</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="E50">
+      <c r="B60" s="1">
+        <f>SUM(B2:B59)</f>
+        <v>3946</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="E60">
         <v>21.43</v>
       </c>
     </row>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>日期</t>
   </si>
@@ -84,9 +84,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -98,6 +98,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -106,122 +213,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,7 +229,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,17 +460,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,17 +499,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,6 +518,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -548,15 +557,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,8 +1064,8 @@
   <sheetPr/>
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1782,9 +1782,15 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="A46" s="1">
+        <v>20201127</v>
+      </c>
+      <c r="B46" s="1">
+        <v>-500</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1"/>
@@ -1866,7 +1872,7 @@
       </c>
       <c r="B60" s="1">
         <f>SUM(B2:B59)</f>
-        <v>3946</v>
+        <v>3446</v>
       </c>
       <c r="C60" s="1"/>
       <c r="E60">

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>日期</t>
   </si>
@@ -99,7 +99,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,15 +112,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,26 +197,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,7 +214,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,62 +235,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,13 +251,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,6 +347,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -276,162 +432,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +456,56 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,6 +534,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -498,65 +557,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="C51" sqref="C51:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1793,9 +1793,15 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="A47" s="1">
+        <v>20210305</v>
+      </c>
+      <c r="B47" s="1">
+        <v>-500</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E47">
         <v>83.85</v>
       </c>
@@ -1872,7 +1878,7 @@
       </c>
       <c r="B60" s="1">
         <f>SUM(B2:B59)</f>
-        <v>3446</v>
+        <v>2946</v>
       </c>
       <c r="C60" s="1"/>
       <c r="E60">

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,8 +85,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -98,20 +98,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -121,8 +107,74 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,13 +188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -151,16 +196,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,72 +220,27 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -251,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,11 +462,50 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,30 +544,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -542,21 +557,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C52"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1807,9 +1807,15 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="A48" s="1">
+        <v>20220128</v>
+      </c>
+      <c r="B48" s="1">
+        <v>-500</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E48">
         <v>63.26</v>
       </c>
@@ -1878,7 +1884,7 @@
       </c>
       <c r="B60" s="1">
         <f>SUM(B2:B59)</f>
-        <v>2946</v>
+        <v>2446</v>
       </c>
       <c r="C60" s="1"/>
       <c r="E60">

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,8 +84,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -98,6 +98,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -106,16 +144,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,6 +153,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -130,14 +168,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,14 +213,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,76 +241,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -251,25 +251,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,157 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,11 +460,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +540,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -494,69 +557,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,8 +1064,8 @@
   <sheetPr/>
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -105,6 +105,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -113,8 +127,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,31 +203,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,50 +241,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -251,48 +251,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -305,7 +353,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,121 +401,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +479,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,15 +499,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -519,6 +510,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,26 +557,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,8 +1064,8 @@
   <sheetPr/>
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1821,9 +1821,15 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="A49" s="1">
+        <v>202212231</v>
+      </c>
+      <c r="B49" s="1">
+        <v>-1446</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1"/>
@@ -1884,7 +1890,7 @@
       </c>
       <c r="B60" s="1">
         <f>SUM(B2:B59)</f>
-        <v>2446</v>
+        <v>1000</v>
       </c>
       <c r="C60" s="1"/>
       <c r="E60">

--- a/借款明细.xlsx
+++ b/借款明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12645"/>
+    <workbookView windowWidth="28695" windowHeight="12930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>日期</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>违约金</t>
+  </si>
+  <si>
+    <t>结清</t>
   </si>
   <si>
     <t>剩余未还</t>
@@ -84,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,13 +102,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -113,7 +109,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,7 +192,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,22 +200,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,14 +210,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,40 +231,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -251,187 +254,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +459,36 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,32 +517,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,28 +546,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,145 +568,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,14 +1067,14 @@
   <sheetPr/>
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
-    <col min="2" max="2" width="9.375"/>
+    <col min="2" max="2" width="12.625"/>
     <col min="3" max="3" width="38.25" customWidth="1"/>
     <col min="8" max="10" width="9.375"/>
   </cols>
@@ -1832,9 +1835,15 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="A50" s="1">
+        <v>20240130</v>
+      </c>
+      <c r="B50" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1"/>
@@ -1886,11 +1895,11 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B60" s="1">
         <f>SUM(B2:B59)</f>
-        <v>1000</v>
+        <v>1.81898940354586e-12</v>
       </c>
       <c r="C60" s="1"/>
       <c r="E60">
